--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
@@ -1161,7 +1161,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="FF76" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9A52" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1220,7 +1220,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CCC0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ACA3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -1763,7 +1763,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FE49" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D86B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1927,7 +1927,7 @@
       <c r="L4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CACD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B654" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:L4"/>
   </mergeCells>
@@ -2153,7 +2153,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DAF0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9860" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2247,7 +2247,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FB71" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C40C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
@@ -1161,7 +1161,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9A52" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BDFA" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1220,7 +1220,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ACA3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CAA1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -1763,7 +1763,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D86B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C277" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1927,7 +1927,7 @@
       <c r="L4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B654" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EB9D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:L4"/>
   </mergeCells>
@@ -2153,7 +2153,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9860" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DF96" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2247,7 +2247,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C40C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF49" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="235">
   <si>
     <t>key</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Minimum Information about any (x) Sequence (MIxS)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH), providing insights into gene expression within tissues, following the Minimum Information about any (x) Sequence (MIxS) standard for contextual data about sequencing and sampling.</t>
+    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH), Minimum Information about any (x) Sequence (MIxS) standard for contextual data about sequencing and sampling.</t>
   </si>
   <si>
     <t>mixs</t>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>Holdfast Fungi</t>
+  </si>
+  <si>
+    <t>Inflorescence</t>
   </si>
   <si>
     <t>Intestine</t>
@@ -1114,7 +1117,7 @@
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="108.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="225" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1161,7 +1164,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="BDFA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C8BB" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1220,7 +1223,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CAA1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E003" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -1240,7 +1243,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:F79"/>
+  <dimension ref="C5:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1647,6 +1650,11 @@
     <row r="79" spans="6:6">
       <c r="F79" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1771,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C277" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="84F1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1927,7 +1935,7 @@
       <c r="L4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EB9D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ECFB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:L4"/>
   </mergeCells>
@@ -1938,7 +1946,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$79</formula1>
+      <formula1>HiddenDropdowns!$F$5:$F$80</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1977,52 +1985,52 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2030,52 +2038,52 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2083,52 +2091,52 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2153,7 +2161,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF96" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8879" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2191,16 +2199,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2208,16 +2216,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2225,16 +2233,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2247,7 +2255,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF49" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EDBE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
@@ -1164,7 +1164,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C8BB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A526" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1223,7 +1223,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E003" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B881" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -1771,7 +1771,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="84F1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A673" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1935,7 +1935,7 @@
       <c r="L4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ECFB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F02E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:L4"/>
   </mergeCells>
@@ -2161,7 +2161,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8879" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DD04" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2255,7 +2255,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EDBE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9FF8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="265">
   <si>
     <t>key</t>
   </si>
@@ -85,7 +85,7 @@
     <t>The workflow or protocol followed during the study.</t>
   </si>
   <si>
-    <t>e.g. spatial_transcriptomics</t>
+    <t>e.g. Laser microdissection</t>
   </si>
   <si>
     <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -331,6 +331,9 @@
     <t>Bodywall</t>
   </si>
   <si>
+    <t>Bone Marrow Hematopoietic Niches</t>
+  </si>
+  <si>
     <t>Bract</t>
   </si>
   <si>
@@ -346,6 +349,18 @@
     <t>Cephalothorax</t>
   </si>
   <si>
+    <t>Cortex Development In Roots</t>
+  </si>
+  <si>
+    <t>Developing Brain</t>
+  </si>
+  <si>
+    <t>Developing Embryo</t>
+  </si>
+  <si>
+    <t>Developing Seed Coat</t>
+  </si>
+  <si>
     <t>Dna Extract</t>
   </si>
   <si>
@@ -355,6 +370,9 @@
     <t>Eggshell</t>
   </si>
   <si>
+    <t>Embryonic Stem Cells</t>
+  </si>
+  <si>
     <t>Endocrine Tissue</t>
   </si>
   <si>
@@ -367,12 +385,30 @@
     <t>Fat Body</t>
   </si>
   <si>
+    <t>Fetal Heart</t>
+  </si>
+  <si>
+    <t>Fetal Kidney</t>
+  </si>
+  <si>
+    <t>Fetal Liver</t>
+  </si>
+  <si>
+    <t>Fetal Lung</t>
+  </si>
+  <si>
     <t>Fin</t>
   </si>
   <si>
+    <t>Floral Meristem</t>
+  </si>
+  <si>
     <t>Flower</t>
   </si>
   <si>
+    <t>Gastrulation-Stage Embryo</t>
+  </si>
+  <si>
     <t>Gill Animal</t>
   </si>
   <si>
@@ -382,6 +418,9 @@
     <t>Gonad</t>
   </si>
   <si>
+    <t>Gut</t>
+  </si>
+  <si>
     <t>Hair</t>
   </si>
   <si>
@@ -397,6 +436,9 @@
     <t>Holdfast Fungi</t>
   </si>
   <si>
+    <t>Hypocotyl</t>
+  </si>
+  <si>
     <t>Inflorescence</t>
   </si>
   <si>
@@ -409,9 +451,15 @@
     <t>Leaf</t>
   </si>
   <si>
+    <t>Leaf Primordia</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
+    <t>Limb Bud</t>
+  </si>
+  <si>
     <t>Liver</t>
   </si>
   <si>
@@ -439,6 +487,15 @@
     <t>Mycorrhiza</t>
   </si>
   <si>
+    <t>Neonatal Retina</t>
+  </si>
+  <si>
+    <t>Neural Crest Cells</t>
+  </si>
+  <si>
+    <t>Nodules</t>
+  </si>
+  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -448,6 +505,9 @@
     <t>Not Provided</t>
   </si>
   <si>
+    <t>Olfactory Epithelium</t>
+  </si>
+  <si>
     <t>Other Fungal Tissue</t>
   </si>
   <si>
@@ -466,18 +526,36 @@
     <t>Oviduct</t>
   </si>
   <si>
+    <t>Ovule Primordium</t>
+  </si>
+  <si>
     <t>Pancreas</t>
   </si>
   <si>
     <t>Petiole</t>
   </si>
   <si>
+    <t>Placental Trophoblast Cells</t>
+  </si>
+  <si>
+    <t>Pollen Mother Cells</t>
+  </si>
+  <si>
     <t>Posterior Body</t>
   </si>
   <si>
+    <t>Postnatal Thymus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhizome Meristem </t>
+  </si>
+  <si>
     <t>Root</t>
   </si>
   <si>
+    <t>Root Apical Meristem</t>
+  </si>
+  <si>
     <t>Scales</t>
   </si>
   <si>
@@ -493,9 +571,15 @@
     <t>Shoot</t>
   </si>
   <si>
+    <t>Shoot Apical Meristem</t>
+  </si>
+  <si>
     <t>Skin</t>
   </si>
   <si>
+    <t>Somitic Mesoderm</t>
+  </si>
+  <si>
     <t>Sperm Seminal Fluid</t>
   </si>
   <si>
@@ -535,9 +619,15 @@
     <t>Thorax</t>
   </si>
   <si>
+    <t>Trichome Precursor Cells</t>
+  </si>
+  <si>
     <t>Unicellular Organisms In Culture</t>
   </si>
   <si>
+    <t>Vascular Cambium</t>
+  </si>
+  <si>
     <t>Whole Organism</t>
   </si>
   <si>
@@ -559,7 +649,7 @@
     <t>section_thickness_µm</t>
   </si>
   <si>
-    <t>section_thickness_method</t>
+    <t>section_thickness_measurement_method</t>
   </si>
   <si>
     <t>section_thickness_temperature</t>
@@ -595,7 +685,7 @@
     <t>section_thickness_µm (optional)</t>
   </si>
   <si>
-    <t>section_thickness_method (optional)</t>
+    <t>section_thickness_measurement_method (optional)</t>
   </si>
   <si>
     <t>section_thickness_temperature (optional)</t>
@@ -1164,7 +1254,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A526" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F1B9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1223,7 +1313,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B881" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA77" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -1243,14 +1333,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:F80"/>
+  <dimension ref="C5:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
@@ -1655,6 +1745,156 @@
     <row r="80" spans="6:6">
       <c r="F80" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1771,7 +2011,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A673" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E80F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -1935,7 +2175,7 @@
       <c r="L4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F02E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E053" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:L4"/>
   </mergeCells>
@@ -1946,7 +2186,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$80</formula1>
+      <formula1>HiddenDropdowns!$F$5:$F$110</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1985,52 +2225,52 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2038,52 +2278,52 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2091,52 +2331,52 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2161,7 +2401,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD04" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D9EA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2199,16 +2439,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2216,16 +2456,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2233,16 +2473,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2255,7 +2495,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9FF8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D5F0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
@@ -1254,7 +1254,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F1B9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8251" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1313,7 +1313,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA77" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8A56" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2011,7 +2011,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E80F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="99EF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2175,7 +2175,7 @@
       <c r="L4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E053" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B4A4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:L4"/>
   </mergeCells>
@@ -2401,7 +2401,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D9EA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A446" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2495,7 +2495,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D5F0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF46" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
@@ -1254,7 +1254,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8251" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B501" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1313,7 +1313,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8A56" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C855" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2011,7 +2011,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="99EF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A7AB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2175,7 +2175,7 @@
       <c r="L4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B4A4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F43A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:L4"/>
   </mergeCells>
@@ -2401,7 +2401,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A446" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C4A9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2495,7 +2495,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF46" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BD05" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
+++ b/dist/checklists/xlsx/mixs/stx_fish_mixs_v0.1.xlsx
@@ -1254,7 +1254,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B501" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CC0A" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1313,7 +1313,7 @@
       <c r="C4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C855" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DD1A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
@@ -2011,7 +2011,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A7AB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EB99" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2175,7 +2175,7 @@
       <c r="L4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F43A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A75D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:L4"/>
   </mergeCells>
@@ -2401,7 +2401,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C4A9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A82C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -2495,7 +2495,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BD05" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BFC5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
